--- a/data/trans_camb/P19-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>12.02890544608419</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>15.0551028949267</v>
+        <v>15.05510289492669</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.039413430555423</v>
@@ -664,7 +664,7 @@
         <v>11.3230430995795</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>15.09063930248225</v>
+        <v>15.09063930248224</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.306442730179587</v>
+        <v>-2.069324416216691</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.679343987048288</v>
+        <v>2.998567117896899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.330616251777481</v>
+        <v>7.445181482506766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.718183694242104</v>
+        <v>-4.060679836356351</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.615404073014361</v>
+        <v>4.254307935979201</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.662564086416538</v>
+        <v>8.61608716693523</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01690520526652375</v>
+        <v>-0.5030945070332667</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.258445395147465</v>
+        <v>6.103836297182857</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.691266430252865</v>
+        <v>9.972202070983922</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.16280683301223</v>
+        <v>12.69756534217878</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.8261774326382</v>
+        <v>17.97003507590825</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.02711957260707</v>
+        <v>22.0261357150425</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.45071049665286</v>
+        <v>11.53355965090754</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.16040722335837</v>
+        <v>19.68575813281234</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.36592076021505</v>
+        <v>21.53250301573497</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.30050516667739</v>
+        <v>10.59414386176902</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.80428944473987</v>
+        <v>16.88670913215224</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>19.99498570479082</v>
+        <v>20.01545227095623</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5353442384175843</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7622809118484585</v>
+        <v>0.7622809118484587</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1819923500788014</v>
@@ -760,7 +760,7 @@
         <v>0.5308166538499544</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6643579815196942</v>
+        <v>0.6643579815196939</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2378470060124556</v>
@@ -769,7 +769,7 @@
         <v>0.5344177327971583</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7122383242356245</v>
+        <v>0.7122383242356243</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06591263287946134</v>
+        <v>-0.1003649235063997</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.100228387579572</v>
+        <v>0.1254258823770277</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2923124790803803</v>
+        <v>0.3145873494882185</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1459876488463998</v>
+        <v>-0.1523958805603341</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1410720677656755</v>
+        <v>0.1499028793049733</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.28337681214146</v>
+        <v>0.3263977501630049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.002707632146545894</v>
+        <v>-0.01985969821306456</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2593595904424663</v>
+        <v>0.2577277414685269</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4006807752310459</v>
+        <v>0.4136791779947596</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8081456631867678</v>
+        <v>0.777833513982283</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.065696437322273</v>
+        <v>1.082294166483109</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.353651352179383</v>
+        <v>1.333363319579587</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6604643408972387</v>
+        <v>0.6370743945655376</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.020105125833749</v>
+        <v>1.035648888998539</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.124058694251468</v>
+        <v>1.155075406154779</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5481680387879772</v>
+        <v>0.5886135960233748</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8823526976915489</v>
+        <v>0.951422926928792</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.107565954207538</v>
+        <v>1.09993671504932</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.4071589008158516</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.018252198328027</v>
+        <v>-5.01825219832803</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-9.41116916180172</v>
@@ -869,7 +869,7 @@
         <v>-2.61396302450978</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-8.154352675156323</v>
+        <v>-8.154352675156328</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-6.740071506977785</v>
@@ -878,7 +878,7 @@
         <v>-1.501425212768476</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-6.597678695938908</v>
+        <v>-6.597678695938914</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.19076536149962</v>
+        <v>-10.61053089241464</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.64599632236838</v>
+        <v>-6.360975606816005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.35413595876517</v>
+        <v>-10.9616256793626</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-14.87071589015792</v>
+        <v>-15.5344962834635</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.768899939847394</v>
+        <v>-8.808968882190094</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-13.85976893703912</v>
+        <v>-13.13204461678981</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-10.74867918278483</v>
+        <v>-10.98891585172708</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.572996355619219</v>
+        <v>-5.457684394291907</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-10.39876052823953</v>
+        <v>-11.00844924025651</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.525417344119776</v>
+        <v>1.592946165575388</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.292080781754435</v>
+        <v>5.130251847455836</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.980670188729281</v>
+        <v>1.895504162091214</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.583300665742711</v>
+        <v>-3.91210782410834</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.959287112692553</v>
+        <v>3.337904621844721</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.961827296539584</v>
+        <v>-2.846710713156917</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-2.935728956721616</v>
+        <v>-2.620871817534388</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.482989723547164</v>
+        <v>2.963840085914127</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.344171420113665</v>
+        <v>-2.510247041574889</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.01417680511013832</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1747297756887203</v>
+        <v>-0.1747297756887204</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2692354924297606</v>
@@ -974,7 +974,7 @@
         <v>-0.07478046669839518</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2332803842111943</v>
+        <v>-0.2332803842111945</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2114946641139369</v>
@@ -983,7 +983,7 @@
         <v>-0.0471127673850229</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2070265631877481</v>
+        <v>-0.2070265631877483</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3122448353841176</v>
+        <v>-0.3293907281759657</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1970999788514127</v>
+        <v>-0.2049624718577919</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3539244130763836</v>
+        <v>-0.347313568220282</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.394067597212845</v>
+        <v>-0.4113110788341103</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2305027832583979</v>
+        <v>-0.225736758411163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3595157879136479</v>
+        <v>-0.3501053864566691</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3229125522637503</v>
+        <v>-0.318894138072194</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1645811231212041</v>
+        <v>-0.1628060789071587</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3148290566450936</v>
+        <v>-0.3209202758973224</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06491962505220664</v>
+        <v>0.06674523768325952</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2046190267878355</v>
+        <v>0.1983433179034551</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.07861812811676036</v>
+        <v>0.07457494146158047</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1132545201265123</v>
+        <v>-0.1213579352623581</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09236031918608395</v>
+        <v>0.1074528442993009</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.09196661233042286</v>
+        <v>-0.08798225010004807</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1022266777563305</v>
+        <v>-0.08647542282462943</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08290852470613613</v>
+        <v>0.1002900041433231</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.08062180731918367</v>
+        <v>-0.08593300396009551</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.738915051441607</v>
+        <v>-6.102728832974504</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3587359845090434</v>
+        <v>0.5453181242845307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.618713555566024</v>
+        <v>-7.532389360408019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9912826630004719</v>
+        <v>0.7468277714844483</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.289530903434335</v>
+        <v>-3.98459143769757</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.221172103564941</v>
+        <v>-4.58641201935523</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.3312728801670375</v>
+        <v>-0.4892250969071463</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4205944500934237</v>
+        <v>0.5174791675590101</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.326089804045525</v>
+        <v>-3.86200003780257</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.129297137233067</v>
+        <v>7.495086761217048</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.06298632593148</v>
+        <v>14.55401672462105</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.762929438646291</v>
+        <v>5.272937720042124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.83368414220171</v>
+        <v>14.353081570288</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.8134148907465</v>
+        <v>9.550195321310097</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.269401813769115</v>
+        <v>8.21698320062953</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.513464642443706</v>
+        <v>9.259880182735357</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.953220869929847</v>
+        <v>10.34400861583265</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.234393497324866</v>
+        <v>5.552087056410004</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2236173544942584</v>
+        <v>-0.2421518666932722</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01428179438841541</v>
+        <v>0.0148949300323448</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.306518884807957</v>
+        <v>-0.3017137713274786</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03032522425508135</v>
+        <v>0.02167392555163798</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.138247800212971</v>
+        <v>-0.1272575297239437</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.132597972868732</v>
+        <v>-0.1439229194432241</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01115194853689882</v>
+        <v>-0.01599891912705403</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.01577084182889803</v>
+        <v>0.01905827494421339</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1550332709711741</v>
+        <v>-0.1369908213765895</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4357206292213797</v>
+        <v>0.3919318416632722</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7619465955184646</v>
+        <v>0.7656763578289418</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.329369707206393</v>
+        <v>0.2769078707953201</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5987898621237101</v>
+        <v>0.5794892888095232</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3954819856932169</v>
+        <v>0.3832226031725955</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3197291069361221</v>
+        <v>0.3371127692778279</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4291191239286605</v>
+        <v>0.4100800681758413</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4358663233276703</v>
+        <v>0.4590745532487926</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2254623284244862</v>
+        <v>0.2465871301063051</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.420860392154497</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9.807702308520177</v>
+        <v>9.807702308520183</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-6.941901472179496</v>
@@ -1297,7 +1297,7 @@
         <v>4.904630451351188</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.14973193011846</v>
+        <v>10.14973193011847</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-3.399758471213016</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.156186892591606</v>
+        <v>-6.551582332426306</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.055742817040998</v>
+        <v>-2.213043715987339</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.322668165133475</v>
+        <v>1.401843109374044</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-13.12202047723958</v>
+        <v>-13.67593843061557</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.127323087517093</v>
+        <v>-1.91325705719846</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.280092494515809</v>
+        <v>3.642900125090529</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-7.846122528383774</v>
+        <v>-8.444306548226963</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.399848488346785</v>
+        <v>0.09760510235774696</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.87528245158014</v>
+        <v>5.008231809017411</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.145303175409649</v>
+        <v>6.642469334965161</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.9716877408894</v>
+        <v>11.84782009613323</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.30740442776635</v>
+        <v>17.76908257922354</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.01016013051932393</v>
+        <v>0.4299985139479323</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.88613997851794</v>
+        <v>12.4812729642003</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.85163906102322</v>
+        <v>16.4081399224355</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.284986403948855</v>
+        <v>1.142692425327386</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.514922325547131</v>
+        <v>9.267547749272627</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.49211875714508</v>
+        <v>15.04829107856409</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1671583271304506</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3708416383822322</v>
+        <v>0.3708416383822324</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2105827046504302</v>
@@ -1402,7 +1402,7 @@
         <v>0.1487820519918909</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3078922986572045</v>
+        <v>0.3078922986572047</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1142267585324755</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.211513893240263</v>
+        <v>-0.2220959761483132</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06935495180895439</v>
+        <v>-0.09461274811976632</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.07830942390615193</v>
+        <v>0.03778704536379007</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3635173360429602</v>
+        <v>-0.3771748673071637</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05972541106897692</v>
+        <v>-0.05356848119121334</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09306991476324575</v>
+        <v>0.09596576701229237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.246216835379361</v>
+        <v>-0.2581770409934982</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01155029251022378</v>
+        <v>0.003147561734315091</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1565516803182345</v>
+        <v>0.1602369152954908</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2628786472284523</v>
+        <v>0.2841947560347596</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4707309151351405</v>
+        <v>0.5052019925097291</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7735368690122723</v>
+        <v>0.7253377587213302</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.0024496309006285</v>
+        <v>0.01188746210081758</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4140726287662287</v>
+        <v>0.4302258017872074</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5720666187056351</v>
+        <v>0.5439960165111059</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04845106085353575</v>
+        <v>0.04493974944729031</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3620662404771391</v>
+        <v>0.3436031359857714</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5719232085706603</v>
+        <v>0.5490540577435318</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-23.19843205171873</v>
+        <v>-21.73403355552613</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-25.24719266289374</v>
+        <v>-25.18020739916734</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-29.54254259874321</v>
+        <v>-28.39610084018621</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.076233038484576</v>
+        <v>-4.615404017106451</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-13.7880275492253</v>
+        <v>-11.5827617041872</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-19.56049326183894</v>
+        <v>-19.04127452800512</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-11.4730272041275</v>
+        <v>-11.8339846019346</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-15.68781959087849</v>
+        <v>-16.10158700865092</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-21.64636686496039</v>
+        <v>-22.23665899279186</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.950982115182618</v>
+        <v>-4.899800132386915</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-9.656761603163295</v>
+        <v>-8.773587015851621</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-14.8000894320521</v>
+        <v>-13.9898251199182</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.26913503725756</v>
+        <v>13.38082035321776</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.013679100951187</v>
+        <v>5.736726453192717</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.51850548511452</v>
+        <v>-4.300685119122978</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.044718482399622</v>
+        <v>1.265668118012894</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-3.650888444724611</v>
+        <v>-3.894653736579449</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-10.57658642615942</v>
+        <v>-11.54193092075495</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.1060128347440775</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3980821069788648</v>
+        <v>-0.3980821069788649</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1609354632314812</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6001592913973455</v>
+        <v>-0.5841230662471727</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6725639354860518</v>
+        <v>-0.6696304810252572</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7705862418860177</v>
+        <v>-0.7705608669098631</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1535889547982852</v>
+        <v>-0.1459448692247105</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3988530003372244</v>
+        <v>-0.3371167092393008</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5621483178982059</v>
+        <v>-0.5627715120536106</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3284794870356822</v>
+        <v>-0.3411187773812024</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4549419021873706</v>
+        <v>-0.4675998207830971</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.627946729078121</v>
+        <v>-0.6297974154499933</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.183199013351127</v>
+        <v>-0.1735006699375572</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3269059681403864</v>
+        <v>-0.3017599218009981</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.5006700523521006</v>
+        <v>-0.4841432621302534</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5470834758584144</v>
+        <v>0.5648556354694356</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2049329388970725</v>
+        <v>0.2580531025725352</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1871491167986207</v>
+        <v>-0.1719786032179562</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04124857360409294</v>
+        <v>0.04673184768368904</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1275280752281415</v>
+        <v>-0.1443804071681031</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3888686284734921</v>
+        <v>-0.404086442452027</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>16.08700251288379</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3.555783939468218</v>
+        <v>3.555783939468221</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-4.019016559409744</v>
@@ -1725,7 +1725,7 @@
         <v>6.937044525427289</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-6.07571154768059</v>
+        <v>-6.075711547680601</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.343199093904459</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.264293558103179</v>
+        <v>3.289264770630949</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>9.082826050044234</v>
+        <v>8.200647514014468</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.096790209621074</v>
+        <v>-3.949939965803574</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-11.36621268044561</v>
+        <v>-12.12309830564318</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.196255410604583</v>
+        <v>-0.5876417531468331</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-12.74482704363682</v>
+        <v>-13.92873450831537</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.868582903434133</v>
+        <v>-1.870021371326958</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>5.590496426035465</v>
+        <v>6.421370884898027</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-6.54828862744868</v>
+        <v>-5.929936606911915</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.3315000248328</v>
+        <v>18.09115955736827</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.73084685658621</v>
+        <v>23.74879575900569</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.11115280561721</v>
+        <v>10.07438746656967</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.759475955809955</v>
+        <v>4.217845044009608</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>15.81502609256054</v>
+        <v>16.24659288684464</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.446098346436356</v>
+        <v>1.409864396992204</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.56218430743796</v>
+        <v>8.822563666420914</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>16.8664612065039</v>
+        <v>17.25659004623355</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.529088663640668</v>
+        <v>3.144626659135997</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.8207028578987744</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.1814037163763083</v>
+        <v>0.1814037163763084</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.116956909355574</v>
@@ -1830,7 +1830,7 @@
         <v>0.2018740843096047</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1768085386682396</v>
+        <v>-0.1768085386682399</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1234520432073508</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1381124344084924</v>
+        <v>0.1209288334023452</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.4094001290212637</v>
+        <v>0.3564469624637114</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1348879725828051</v>
+        <v>-0.1782102292775664</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3121339822085858</v>
+        <v>-0.3165666949864646</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.03009018086070137</v>
+        <v>-0.01525527688204909</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3349525012783442</v>
+        <v>-0.3517912041236919</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.06648135612549909</v>
+        <v>-0.06360687698811437</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1921805913767497</v>
+        <v>0.2132204284769725</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2175558781210591</v>
+        <v>-0.2048262345642613</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.104291134060529</v>
+        <v>1.129514760086005</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.499118709441543</v>
+        <v>1.483556108134847</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.6122084064987041</v>
+        <v>0.6314756715231069</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1510399791681614</v>
+        <v>0.1373414191491341</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5286932522724539</v>
+        <v>0.5342210628709171</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05004142675758301</v>
+        <v>0.0461544605641821</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3548580162214452</v>
+        <v>0.3612642106097786</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6791110910360927</v>
+        <v>0.7148343773587842</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1425423369365013</v>
+        <v>0.1304691899792076</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.684941672449582</v>
+        <v>-8.900613254937277</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.623275343046207</v>
+        <v>-5.93373733392941</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.5109719132846212</v>
+        <v>0.6403178557897553</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-9.513355118621375</v>
+        <v>-9.661707522667419</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.763206071548717</v>
+        <v>-6.479582095677569</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.740104946366344</v>
+        <v>-3.913700781513966</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-7.777543282075163</v>
+        <v>-8.450701836133598</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.436200365855977</v>
+        <v>-4.561319872225923</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.3871232140607299</v>
+        <v>-0.5768366070564628</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.107773218975303</v>
+        <v>0.5623012401712609</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.416931172990041</v>
+        <v>4.530015008537618</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11.67042698898811</v>
+        <v>11.57681179262807</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.200413166594645</v>
+        <v>1.132622994414535</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.520571272298411</v>
+        <v>4.586151308816736</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.292908569550498</v>
+        <v>6.04376520442729</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.6542131884841405</v>
+        <v>-0.924144537370192</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.350232325841904</v>
+        <v>3.055250838720508</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>7.224570087144022</v>
+        <v>6.880797247206376</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2996840247238278</v>
+        <v>-0.2848738246872206</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1836535010483075</v>
+        <v>-0.186989249880279</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.01503203860670512</v>
+        <v>0.02054048749699028</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2368213680068645</v>
+        <v>-0.237224977745003</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.162539171532562</v>
+        <v>-0.1573709997246178</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1160007235999943</v>
+        <v>-0.09712095261514446</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2201969607108459</v>
+        <v>-0.2381639101366879</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.12431160436655</v>
+        <v>-0.1265548220442043</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.01094610344375047</v>
+        <v>-0.01338368689571481</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.04098103835867948</v>
+        <v>0.02717575065570985</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1700935991612856</v>
+        <v>0.1752082504104188</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.451532555510701</v>
+        <v>0.4378361034217749</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.02935944453862722</v>
+        <v>0.03396946760875495</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1302577963649388</v>
+        <v>0.1274412895471425</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1495003205216482</v>
+        <v>0.170302008295873</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.01973674629694954</v>
+        <v>-0.03027113994879969</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1076985512436714</v>
+        <v>0.0981719616929</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2304523744311513</v>
+        <v>0.2170411486846367</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>6.983349574827836</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-2.961053813170822</v>
+        <v>-2.961053813170819</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.524140452882804</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.426826567467816</v>
+        <v>-1.471072267833394</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>4.750255328456189</v>
+        <v>4.314473433825515</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.651952241291813</v>
+        <v>-5.272073878413457</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.1064571083155904</v>
+        <v>-0.7852333300814215</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.599867018029633</v>
+        <v>1.974454336754008</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-7.389632651727626</v>
+        <v>-7.076674938152619</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.01059759040650118</v>
+        <v>0.5401622845947681</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>4.571719076008061</v>
+        <v>4.833874713391243</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-5.044034610788644</v>
+        <v>-5.213033037778179</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>7.400287255507839</v>
+        <v>7.316554200681503</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>13.72968119674822</v>
+        <v>13.53735089728773</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.191128347639553</v>
+        <v>3.332888411655151</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>9.271331132870264</v>
+        <v>8.338255738491267</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>11.56127800947503</v>
+        <v>11.30644471186935</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.280036386259199</v>
+        <v>1.324979934350099</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.301594982927443</v>
+        <v>6.716994240197326</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>10.96424696515735</v>
+        <v>11.11148648608757</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.8825966553623749</v>
+        <v>0.8433937488327128</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.2628303064566163</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.1114443252211681</v>
+        <v>-0.111444325221168</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1483317762626589</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.06363753168046909</v>
+        <v>-0.06353986003544403</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1988998153052939</v>
+        <v>0.1780511807236339</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2469597862166023</v>
+        <v>-0.2323869670439141</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.002261602080939283</v>
+        <v>-0.03338617937306552</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.0882602051011605</v>
+        <v>0.06739305008123825</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2537863161581572</v>
+        <v>-0.2459862609372858</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.001088409291849957</v>
+        <v>0.01957978347574319</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1802470504385992</v>
+        <v>0.1939791438119965</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1995709831314842</v>
+        <v>-0.2095105711081295</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3979462954709198</v>
+        <v>0.3909223202344764</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.7409900899784753</v>
+        <v>0.7229163491565757</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1769146177817203</v>
+        <v>0.1773413082957292</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3923001808643231</v>
+        <v>0.334856839874949</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4796280509812534</v>
+        <v>0.4604296551141225</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.05587402073377029</v>
+        <v>0.05101793239153476</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2784605214746009</v>
+        <v>0.299597932719118</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4882722987634374</v>
+        <v>0.5080088069624216</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.036732647062392</v>
+        <v>0.03791949225128648</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>4.180308805355986</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1.444930485354501</v>
+        <v>1.444930485354506</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-1.019682379774528</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.302109184212839</v>
+        <v>-2.341038673798026</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>2.071696714370336</v>
+        <v>1.964559854069952</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.623296113197583</v>
+        <v>-0.8086241396994315</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-3.412678673514273</v>
+        <v>-3.458970927181257</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.7433017780272386</v>
+        <v>0.8215965402339795</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-2.087562141352672</v>
+        <v>-2.285180425265753</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.16988553791904</v>
+        <v>-2.241176392312098</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>2.14878470734824</v>
+        <v>2.210220138305912</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.9449490452102823</v>
+        <v>-0.92740479885669</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.917645267654746</v>
+        <v>2.095168759770614</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>6.363224860792151</v>
+        <v>6.378291584460401</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.663607569839572</v>
+        <v>3.940685132487172</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.125827603438019</v>
+        <v>1.108355757623114</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>5.575132685923541</v>
+        <v>5.393970529614571</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.9349162140566</v>
+        <v>1.997429852014223</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.020180013707229</v>
+        <v>1.077603191987176</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>5.347983971114615</v>
+        <v>5.284676791141659</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.142597670877042</v>
+        <v>2.309549351895767</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.1680309685594636</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.05808017547510749</v>
+        <v>0.05808017547510771</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.03252859144367393</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.08944601908811287</v>
+        <v>-0.09072091781825461</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.07962651872465704</v>
+        <v>0.07655340029130164</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.02371968370103209</v>
+        <v>-0.03070909577148846</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1053449763184491</v>
+        <v>-0.1066301525484231</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.02342532277615691</v>
+        <v>0.02397048127430636</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.06589089448642792</v>
+        <v>-0.06931003678113326</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.07517323027337172</v>
+        <v>-0.07690364972851514</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.07333788673288258</v>
+        <v>0.07698994286668302</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.03302026627629862</v>
+        <v>-0.03184020845804978</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.08040572346389144</v>
+        <v>0.08887782252351646</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.2689483838627912</v>
+        <v>0.2676220357534412</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1536851294477536</v>
+        <v>0.1654410679877908</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.03778484042088746</v>
+        <v>0.03665103325390829</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1858516094627176</v>
+        <v>0.1781076319061716</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.06450812245955399</v>
+        <v>0.06564461042909307</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.0366973247172088</v>
+        <v>0.03936668962208205</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1950822850425769</v>
+        <v>0.1934029833660461</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.07803136133360319</v>
+        <v>0.08461223853667256</v>
       </c>
     </row>
     <row r="58">
